--- a/Code/Results/Cases/Case_3_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017382910567667</v>
+        <v>1.040319673023562</v>
       </c>
       <c r="D2">
-        <v>1.038452415626388</v>
+        <v>1.050398476648657</v>
       </c>
       <c r="E2">
-        <v>1.021404236900667</v>
+        <v>1.038734453878905</v>
       </c>
       <c r="F2">
-        <v>1.044462053109284</v>
+        <v>1.061154357488823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0566621991422</v>
+        <v>1.046005074714861</v>
       </c>
       <c r="J2">
-        <v>1.039055847655711</v>
+        <v>1.045406919576044</v>
       </c>
       <c r="K2">
-        <v>1.049400830538713</v>
+        <v>1.053152864107349</v>
       </c>
       <c r="L2">
-        <v>1.032573217908237</v>
+        <v>1.041521643239324</v>
       </c>
       <c r="M2">
-        <v>1.055334856490596</v>
+        <v>1.063879189130017</v>
       </c>
       <c r="N2">
-        <v>1.040531426140754</v>
+        <v>1.046891517311692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021622584154194</v>
+        <v>1.041212101358133</v>
       </c>
       <c r="D3">
-        <v>1.041845188727644</v>
+        <v>1.051133711407257</v>
       </c>
       <c r="E3">
-        <v>1.024788245874386</v>
+        <v>1.039492228859288</v>
       </c>
       <c r="F3">
-        <v>1.048499948337259</v>
+        <v>1.062054522704025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058249967220062</v>
+        <v>1.046279186495366</v>
       </c>
       <c r="J3">
-        <v>1.041540662521743</v>
+        <v>1.045945201768942</v>
       </c>
       <c r="K3">
-        <v>1.051969248681901</v>
+        <v>1.053700736351665</v>
       </c>
       <c r="L3">
-        <v>1.035113484211408</v>
+        <v>1.042089630534628</v>
       </c>
       <c r="M3">
-        <v>1.058547708596302</v>
+        <v>1.064593704008221</v>
       </c>
       <c r="N3">
-        <v>1.043019769728907</v>
+        <v>1.047430563927046</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024312824377644</v>
+        <v>1.04179006716735</v>
       </c>
       <c r="D4">
-        <v>1.044000335256732</v>
+        <v>1.051609868137562</v>
       </c>
       <c r="E4">
-        <v>1.02694110149044</v>
+        <v>1.03998335960324</v>
       </c>
       <c r="F4">
-        <v>1.051066513300737</v>
+        <v>1.062637770506372</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059247855423774</v>
+        <v>1.046455524106837</v>
       </c>
       <c r="J4">
-        <v>1.043114409719655</v>
+        <v>1.046293362160718</v>
       </c>
       <c r="K4">
-        <v>1.05359520618688</v>
+        <v>1.054054987625185</v>
       </c>
       <c r="L4">
-        <v>1.036724891136802</v>
+        <v>1.042457292355482</v>
       </c>
       <c r="M4">
-        <v>1.060585331853139</v>
+        <v>1.065056186371493</v>
       </c>
       <c r="N4">
-        <v>1.044595751828353</v>
+        <v>1.047779218746512</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025431506398827</v>
+        <v>1.042033163598755</v>
       </c>
       <c r="D5">
-        <v>1.044897020625882</v>
+        <v>1.051810141202698</v>
       </c>
       <c r="E5">
-        <v>1.027837621750329</v>
+        <v>1.040190020843837</v>
       </c>
       <c r="F5">
-        <v>1.052134781945116</v>
+        <v>1.062883153162266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059660465834423</v>
+        <v>1.046529408887993</v>
       </c>
       <c r="J5">
-        <v>1.043768080133221</v>
+        <v>1.046439693174671</v>
       </c>
       <c r="K5">
-        <v>1.054270379900327</v>
+        <v>1.054203851754462</v>
       </c>
       <c r="L5">
-        <v>1.037394813066227</v>
+        <v>1.042611888768136</v>
       </c>
       <c r="M5">
-        <v>1.061432346978554</v>
+        <v>1.065250646906174</v>
       </c>
       <c r="N5">
-        <v>1.045250350528882</v>
+        <v>1.04792575756729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025618628905602</v>
+        <v>1.042073987535461</v>
       </c>
       <c r="D6">
-        <v>1.045047038548915</v>
+        <v>1.051843773561738</v>
       </c>
       <c r="E6">
-        <v>1.027987658431557</v>
+        <v>1.040224731264401</v>
       </c>
       <c r="F6">
-        <v>1.052313530509628</v>
+        <v>1.062924364807607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059729344769129</v>
+        <v>1.046541799930544</v>
       </c>
       <c r="J6">
-        <v>1.043877375554505</v>
+        <v>1.04646426067545</v>
       </c>
       <c r="K6">
-        <v>1.05438325983467</v>
+        <v>1.05422884296218</v>
       </c>
       <c r="L6">
-        <v>1.037506861598997</v>
+        <v>1.042637847991813</v>
       </c>
       <c r="M6">
-        <v>1.061574009609507</v>
+        <v>1.065283299577237</v>
       </c>
       <c r="N6">
-        <v>1.045359801162201</v>
+        <v>1.047950359956738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024327820029547</v>
+        <v>1.041793314965409</v>
       </c>
       <c r="D7">
-        <v>1.044012353132085</v>
+        <v>1.051612543817733</v>
       </c>
       <c r="E7">
-        <v>1.026953114038474</v>
+        <v>1.039986120276734</v>
       </c>
       <c r="F7">
-        <v>1.051080829208511</v>
+        <v>1.062641048595443</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059253395654583</v>
+        <v>1.046456512332498</v>
       </c>
       <c r="J7">
-        <v>1.043123174969985</v>
+        <v>1.046295317584203</v>
       </c>
       <c r="K7">
-        <v>1.053604260509968</v>
+        <v>1.054056977004398</v>
       </c>
       <c r="L7">
-        <v>1.036733871901178</v>
+        <v>1.042459357958493</v>
       </c>
       <c r="M7">
-        <v>1.060596687067038</v>
+        <v>1.065058784634955</v>
       </c>
       <c r="N7">
-        <v>1.044604529526343</v>
+        <v>1.047781176946923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018826984589772</v>
+        <v>1.040621168015003</v>
       </c>
       <c r="D8">
-        <v>1.039607520619413</v>
+        <v>1.050646866717535</v>
       </c>
       <c r="E8">
-        <v>1.022555673198918</v>
+        <v>1.038990380965924</v>
       </c>
       <c r="F8">
-        <v>1.04583646572118</v>
+        <v>1.061458409908052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057205001466402</v>
+        <v>1.046097925126047</v>
       </c>
       <c r="J8">
-        <v>1.039902803362555</v>
+        <v>1.045588863756852</v>
       </c>
       <c r="K8">
-        <v>1.050276434526766</v>
+        <v>1.053338072958943</v>
       </c>
       <c r="L8">
-        <v>1.033438541284614</v>
+        <v>1.041713568317314</v>
       </c>
       <c r="M8">
-        <v>1.056429384913414</v>
+        <v>1.06412063223521</v>
       </c>
       <c r="N8">
-        <v>1.041379584621848</v>
+        <v>1.047073719874106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008707132346023</v>
+        <v>1.038559620238294</v>
       </c>
       <c r="D9">
-        <v>1.03152416998924</v>
+        <v>1.048948433674453</v>
       </c>
       <c r="E9">
-        <v>1.014511772493472</v>
+        <v>1.037241954644436</v>
       </c>
       <c r="F9">
-        <v>1.036224641565058</v>
+        <v>1.059380500622043</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053361850598879</v>
+        <v>1.045458183869917</v>
       </c>
       <c r="J9">
-        <v>1.03395612211334</v>
+        <v>1.044342946097775</v>
       </c>
       <c r="K9">
-        <v>1.044125686925354</v>
+        <v>1.052069342602357</v>
       </c>
       <c r="L9">
-        <v>1.027373713545808</v>
+        <v>1.040400486321973</v>
       </c>
       <c r="M9">
-        <v>1.048756120566028</v>
+        <v>1.06246864822727</v>
       </c>
       <c r="N9">
-        <v>1.035424458403166</v>
+        <v>1.045826032869044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001644209594451</v>
+        <v>1.037187970294092</v>
       </c>
       <c r="D10">
-        <v>1.025899106751395</v>
+        <v>1.047818396933361</v>
       </c>
       <c r="E10">
-        <v>1.008931581960787</v>
+        <v>1.036080594237994</v>
       </c>
       <c r="F10">
-        <v>1.029543120043585</v>
+        <v>1.057999392598542</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050631339379753</v>
+        <v>1.045026444389208</v>
       </c>
       <c r="J10">
-        <v>1.029792744162655</v>
+        <v>1.043511689505595</v>
       </c>
       <c r="K10">
-        <v>1.039815976939852</v>
+        <v>1.051222294470174</v>
       </c>
       <c r="L10">
-        <v>1.023141424985934</v>
+        <v>1.039525904883385</v>
       </c>
       <c r="M10">
-        <v>1.043398693837278</v>
+        <v>1.061368188424291</v>
       </c>
       <c r="N10">
-        <v>1.031255167978244</v>
+        <v>1.044993595797157</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998503757440956</v>
+        <v>1.036594690591677</v>
       </c>
       <c r="D11">
-        <v>1.023402578687681</v>
+        <v>1.047329631861581</v>
       </c>
       <c r="E11">
-        <v>1.006459086059543</v>
+        <v>1.0355787416243</v>
       </c>
       <c r="F11">
-        <v>1.02657917680191</v>
+        <v>1.057402365587989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049406326425446</v>
+        <v>1.044838261169863</v>
       </c>
       <c r="J11">
-        <v>1.027938914599658</v>
+        <v>1.043151606863876</v>
       </c>
       <c r="K11">
-        <v>1.03789625170214</v>
+        <v>1.050855236555146</v>
       </c>
       <c r="L11">
-        <v>1.021260212870611</v>
+        <v>1.039147407557406</v>
       </c>
       <c r="M11">
-        <v>1.041016672366413</v>
+        <v>1.060891899134582</v>
       </c>
       <c r="N11">
-        <v>1.029398705764631</v>
+        <v>1.044633001796785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9973242605935594</v>
+        <v>1.036374419560971</v>
       </c>
       <c r="D12">
-        <v>1.022465678725829</v>
+        <v>1.047148166660386</v>
       </c>
       <c r="E12">
-        <v>1.005531822282096</v>
+        <v>1.035392486649263</v>
       </c>
       <c r="F12">
-        <v>1.025467063856064</v>
+        <v>1.057180755304115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04894463982296</v>
+        <v>1.044768176357763</v>
       </c>
       <c r="J12">
-        <v>1.027242295811798</v>
+        <v>1.043017835720082</v>
       </c>
       <c r="K12">
-        <v>1.03717476751145</v>
+        <v>1.050718853910768</v>
       </c>
       <c r="L12">
-        <v>1.020553803191238</v>
+        <v>1.039006848355627</v>
       </c>
       <c r="M12">
-        <v>1.040122095692763</v>
+        <v>1.060715018070277</v>
       </c>
       <c r="N12">
-        <v>1.028701097698189</v>
+        <v>1.044499040682622</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9975778655356879</v>
+        <v>1.036421663923693</v>
       </c>
       <c r="D13">
-        <v>1.022667087721372</v>
+        <v>1.047187087740373</v>
       </c>
       <c r="E13">
-        <v>1.005731131867996</v>
+        <v>1.035432431914896</v>
       </c>
       <c r="F13">
-        <v>1.025706130406278</v>
+        <v>1.057228284552197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049043978830512</v>
+        <v>1.044783218156865</v>
       </c>
       <c r="J13">
-        <v>1.027392091922419</v>
+        <v>1.043046530991224</v>
       </c>
       <c r="K13">
-        <v>1.037329915066973</v>
+        <v>1.050748110287456</v>
       </c>
       <c r="L13">
-        <v>1.020705682086189</v>
+        <v>1.039036997334577</v>
       </c>
       <c r="M13">
-        <v>1.040314435717686</v>
+        <v>1.060752958099073</v>
       </c>
       <c r="N13">
-        <v>1.028851106536469</v>
+        <v>1.044527776704341</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9984065288250246</v>
+        <v>1.036576480883266</v>
       </c>
       <c r="D14">
-        <v>1.023325332268026</v>
+        <v>1.04731463017086</v>
       </c>
       <c r="E14">
-        <v>1.006382621585306</v>
+        <v>1.035563342550144</v>
       </c>
       <c r="F14">
-        <v>1.026487480329068</v>
+        <v>1.057384044100061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049368300674008</v>
+        <v>1.044832471711185</v>
       </c>
       <c r="J14">
-        <v>1.027881497679545</v>
+        <v>1.043140549709705</v>
       </c>
       <c r="K14">
-        <v>1.037836787380883</v>
+        <v>1.050843963952787</v>
       </c>
       <c r="L14">
-        <v>1.021201978808212</v>
+        <v>1.039135788239357</v>
       </c>
       <c r="M14">
-        <v>1.040942928690524</v>
+        <v>1.060877277389406</v>
       </c>
       <c r="N14">
-        <v>1.029341207305905</v>
+        <v>1.044621928940187</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9989153537695228</v>
+        <v>1.036671881939243</v>
       </c>
       <c r="D15">
-        <v>1.023729615679472</v>
+        <v>1.047393224436308</v>
       </c>
       <c r="E15">
-        <v>1.006782837713394</v>
+        <v>1.035644021556146</v>
       </c>
       <c r="F15">
-        <v>1.026967398759354</v>
+        <v>1.057480032905155</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049567235519868</v>
+        <v>1.044862793933251</v>
       </c>
       <c r="J15">
-        <v>1.028181962532669</v>
+        <v>1.043198475071736</v>
       </c>
       <c r="K15">
-        <v>1.038147962180819</v>
+        <v>1.050903017162161</v>
       </c>
       <c r="L15">
-        <v>1.021506740143959</v>
+        <v>1.039196660793251</v>
       </c>
       <c r="M15">
-        <v>1.041328853342079</v>
+        <v>1.060953879151625</v>
       </c>
       <c r="N15">
-        <v>1.029642098853585</v>
+        <v>1.044679936562876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001850845568435</v>
+        <v>1.037227358194416</v>
       </c>
       <c r="D16">
-        <v>1.026063474532946</v>
+        <v>1.047850846344321</v>
       </c>
       <c r="E16">
-        <v>1.009094453287779</v>
+        <v>1.036113922253952</v>
       </c>
       <c r="F16">
-        <v>1.029738290563748</v>
+        <v>1.058039036560751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050711719223442</v>
+        <v>1.045038907482351</v>
       </c>
       <c r="J16">
-        <v>1.029914671353814</v>
+        <v>1.043535584082328</v>
       </c>
       <c r="K16">
-        <v>1.039942223346248</v>
+        <v>1.051246649083614</v>
       </c>
       <c r="L16">
-        <v>1.02326522215048</v>
+        <v>1.039551028865217</v>
       </c>
       <c r="M16">
-        <v>1.043555432921439</v>
+        <v>1.061399802866329</v>
       </c>
       <c r="N16">
-        <v>1.03137726832</v>
+        <v>1.045017524306929</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003669760103219</v>
+        <v>1.03757596968494</v>
       </c>
       <c r="D17">
-        <v>1.027510853597454</v>
+        <v>1.048138048353762</v>
       </c>
       <c r="E17">
-        <v>1.010529124247803</v>
+        <v>1.036408953838165</v>
       </c>
       <c r="F17">
-        <v>1.031457074874749</v>
+        <v>1.058389954152218</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051418024793209</v>
+        <v>1.045149048115449</v>
       </c>
       <c r="J17">
-        <v>1.030987641641017</v>
+        <v>1.043747006117105</v>
       </c>
       <c r="K17">
-        <v>1.041053119929519</v>
+        <v>1.051462126025878</v>
       </c>
       <c r="L17">
-        <v>1.024355024483686</v>
+        <v>1.039773369563007</v>
       </c>
       <c r="M17">
-        <v>1.044935147314657</v>
+        <v>1.061679578115081</v>
       </c>
       <c r="N17">
-        <v>1.032451762348082</v>
+        <v>1.045229246585246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004722820981477</v>
+        <v>1.037779371865454</v>
       </c>
       <c r="D18">
-        <v>1.028349246266946</v>
+        <v>1.048305621226405</v>
       </c>
       <c r="E18">
-        <v>1.011360547225817</v>
+        <v>1.036581139475827</v>
       </c>
       <c r="F18">
-        <v>1.032452819372577</v>
+        <v>1.0585947350049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05182590021199</v>
+        <v>1.045213171867704</v>
       </c>
       <c r="J18">
-        <v>1.03160858555257</v>
+        <v>1.0438703111385</v>
       </c>
       <c r="K18">
-        <v>1.041695941793809</v>
+        <v>1.051587782941015</v>
       </c>
       <c r="L18">
-        <v>1.024986022426004</v>
+        <v>1.039903076561463</v>
       </c>
       <c r="M18">
-        <v>1.045733939155754</v>
+        <v>1.061842787135924</v>
       </c>
       <c r="N18">
-        <v>1.033073588071213</v>
+        <v>1.045352726713915</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005080569772739</v>
+        <v>1.037848737400071</v>
       </c>
       <c r="D19">
-        <v>1.028634138952176</v>
+        <v>1.048362768154569</v>
       </c>
       <c r="E19">
-        <v>1.011643137990054</v>
+        <v>1.036639867023079</v>
       </c>
       <c r="F19">
-        <v>1.032791205966731</v>
+        <v>1.05866457631272</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051964286962414</v>
+        <v>1.045235016134326</v>
       </c>
       <c r="J19">
-        <v>1.031819490348345</v>
+        <v>1.043912352578296</v>
       </c>
       <c r="K19">
-        <v>1.041914265296045</v>
+        <v>1.051630624063536</v>
       </c>
       <c r="L19">
-        <v>1.025200395122334</v>
+        <v>1.039947306556027</v>
       </c>
       <c r="M19">
-        <v>1.046005306447731</v>
+        <v>1.061898440689392</v>
       </c>
       <c r="N19">
-        <v>1.033284792375989</v>
+        <v>1.045394827857377</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003475427535683</v>
+        <v>1.037538560446246</v>
       </c>
       <c r="D20">
-        <v>1.027356170560817</v>
+        <v>1.048107228823808</v>
       </c>
       <c r="E20">
-        <v>1.010375758749464</v>
+        <v>1.036377289520348</v>
       </c>
       <c r="F20">
-        <v>1.031273372012398</v>
+        <v>1.058352294016559</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051342670794454</v>
+        <v>1.045137243414636</v>
       </c>
       <c r="J20">
-        <v>1.030873031547884</v>
+        <v>1.043724323960993</v>
       </c>
       <c r="K20">
-        <v>1.040934465981221</v>
+        <v>1.051439010188114</v>
       </c>
       <c r="L20">
-        <v>1.024238583963855</v>
+        <v>1.039749512491977</v>
       </c>
       <c r="M20">
-        <v>1.044787737844343</v>
+        <v>1.061649558711947</v>
       </c>
       <c r="N20">
-        <v>1.032336989495471</v>
+        <v>1.045206532217871</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981628722441482</v>
+        <v>1.036530888391604</v>
       </c>
       <c r="D21">
-        <v>1.023131763718602</v>
+        <v>1.047277069775386</v>
       </c>
       <c r="E21">
-        <v>1.006191022424802</v>
+        <v>1.035524788327671</v>
       </c>
       <c r="F21">
-        <v>1.026257705136499</v>
+        <v>1.057338172582939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049272981969843</v>
+        <v>1.044817972873557</v>
       </c>
       <c r="J21">
-        <v>1.027737604330092</v>
+        <v>1.043112864095473</v>
       </c>
       <c r="K21">
-        <v>1.037687761367274</v>
+        <v>1.050815738559776</v>
       </c>
       <c r="L21">
-        <v>1.021056045651191</v>
+        <v>1.039106695899587</v>
       </c>
       <c r="M21">
-        <v>1.040758127040447</v>
+        <v>1.060840667507804</v>
       </c>
       <c r="N21">
-        <v>1.029197109611392</v>
+        <v>1.044594204009206</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9947471304621204</v>
+        <v>1.03589790107844</v>
       </c>
       <c r="D22">
-        <v>1.020420057192238</v>
+        <v>1.046755602061771</v>
       </c>
       <c r="E22">
-        <v>1.003508373622571</v>
+        <v>1.034989687042863</v>
       </c>
       <c r="F22">
-        <v>1.023039225665776</v>
+        <v>1.056701435165168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047933005292925</v>
+        <v>1.044616163727308</v>
       </c>
       <c r="J22">
-        <v>1.025719621163124</v>
+        <v>1.042728297409636</v>
       </c>
       <c r="K22">
-        <v>1.035597559757235</v>
+        <v>1.050423626354568</v>
       </c>
       <c r="L22">
-        <v>1.019010647870426</v>
+        <v>1.03870271476114</v>
       </c>
       <c r="M22">
-        <v>1.038167682832098</v>
+        <v>1.060332282808474</v>
       </c>
       <c r="N22">
-        <v>1.027176260676861</v>
+        <v>1.044209091194565</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965652671613281</v>
+        <v>1.036233404605212</v>
       </c>
       <c r="D23">
-        <v>1.021863013052653</v>
+        <v>1.047031995362303</v>
       </c>
       <c r="E23">
-        <v>1.004935528944176</v>
+        <v>1.035273268519846</v>
       </c>
       <c r="F23">
-        <v>1.024751744973108</v>
+        <v>1.05703889767339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048647106380461</v>
+        <v>1.044723247870887</v>
       </c>
       <c r="J23">
-        <v>1.026793934675669</v>
+        <v>1.042932174274199</v>
       </c>
       <c r="K23">
-        <v>1.036710374136528</v>
+        <v>1.050631514496352</v>
       </c>
       <c r="L23">
-        <v>1.02009928129961</v>
+        <v>1.038916855050639</v>
       </c>
       <c r="M23">
-        <v>1.039546471037476</v>
+        <v>1.060601767995467</v>
       </c>
       <c r="N23">
-        <v>1.028252099837819</v>
+        <v>1.044413257587661</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003563262366106</v>
+        <v>1.037555463876421</v>
       </c>
       <c r="D24">
-        <v>1.027426083179728</v>
+        <v>1.048121154679817</v>
       </c>
       <c r="E24">
-        <v>1.010445074662739</v>
+        <v>1.036391596957796</v>
       </c>
       <c r="F24">
-        <v>1.031356400383273</v>
+        <v>1.05836931071263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051376732677079</v>
+        <v>1.045142577819848</v>
       </c>
       <c r="J24">
-        <v>1.030924834037234</v>
+        <v>1.043734573093982</v>
       </c>
       <c r="K24">
-        <v>1.040988096467528</v>
+        <v>1.05144945532417</v>
       </c>
       <c r="L24">
-        <v>1.024291212815246</v>
+        <v>1.039760292415553</v>
       </c>
       <c r="M24">
-        <v>1.044854364263008</v>
+        <v>1.061663123123773</v>
       </c>
       <c r="N24">
-        <v>1.032388865550298</v>
+        <v>1.045216795905804</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011376845525959</v>
+        <v>1.03909210677885</v>
       </c>
       <c r="D25">
-        <v>1.033653995979669</v>
+        <v>1.049387129099385</v>
       </c>
       <c r="E25">
-        <v>1.016628188693893</v>
+        <v>1.037693221209451</v>
       </c>
       <c r="F25">
-        <v>1.038755877388556</v>
+        <v>1.059916962959031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054384207626261</v>
+        <v>1.045624499962655</v>
       </c>
       <c r="J25">
-        <v>1.035527307138912</v>
+        <v>1.044665164094534</v>
       </c>
       <c r="K25">
-        <v>1.045751411437873</v>
+        <v>1.052397561323575</v>
       </c>
       <c r="L25">
-        <v>1.028973743117058</v>
+        <v>1.040739812499599</v>
       </c>
       <c r="M25">
-        <v>1.050780938510834</v>
+        <v>1.06289557966364</v>
       </c>
       <c r="N25">
-        <v>1.036997874691691</v>
+        <v>1.046148708452317</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_152/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_152/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040319673023562</v>
+        <v>1.017382910567666</v>
       </c>
       <c r="D2">
-        <v>1.050398476648657</v>
+        <v>1.038452415626387</v>
       </c>
       <c r="E2">
-        <v>1.038734453878905</v>
+        <v>1.021404236900666</v>
       </c>
       <c r="F2">
-        <v>1.061154357488823</v>
+        <v>1.044462053109282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046005074714861</v>
+        <v>1.0566621991422</v>
       </c>
       <c r="J2">
-        <v>1.045406919576044</v>
+        <v>1.03905584765571</v>
       </c>
       <c r="K2">
-        <v>1.053152864107349</v>
+        <v>1.049400830538713</v>
       </c>
       <c r="L2">
-        <v>1.041521643239324</v>
+        <v>1.032573217908237</v>
       </c>
       <c r="M2">
-        <v>1.063879189130017</v>
+        <v>1.055334856490595</v>
       </c>
       <c r="N2">
-        <v>1.046891517311692</v>
+        <v>1.040531426140753</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041212101358133</v>
+        <v>1.021622584154194</v>
       </c>
       <c r="D3">
-        <v>1.051133711407257</v>
+        <v>1.041845188727644</v>
       </c>
       <c r="E3">
-        <v>1.039492228859288</v>
+        <v>1.024788245874386</v>
       </c>
       <c r="F3">
-        <v>1.062054522704025</v>
+        <v>1.048499948337258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046279186495366</v>
+        <v>1.058249967220061</v>
       </c>
       <c r="J3">
-        <v>1.045945201768942</v>
+        <v>1.041540662521743</v>
       </c>
       <c r="K3">
-        <v>1.053700736351665</v>
+        <v>1.0519692486819</v>
       </c>
       <c r="L3">
-        <v>1.042089630534628</v>
+        <v>1.035113484211407</v>
       </c>
       <c r="M3">
-        <v>1.064593704008221</v>
+        <v>1.058547708596302</v>
       </c>
       <c r="N3">
-        <v>1.047430563927046</v>
+        <v>1.043019769728907</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04179006716735</v>
+        <v>1.024312824377645</v>
       </c>
       <c r="D4">
-        <v>1.051609868137562</v>
+        <v>1.044000335256732</v>
       </c>
       <c r="E4">
-        <v>1.03998335960324</v>
+        <v>1.02694110149044</v>
       </c>
       <c r="F4">
-        <v>1.062637770506372</v>
+        <v>1.051066513300737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046455524106837</v>
+        <v>1.059247855423774</v>
       </c>
       <c r="J4">
-        <v>1.046293362160718</v>
+        <v>1.043114409719656</v>
       </c>
       <c r="K4">
-        <v>1.054054987625185</v>
+        <v>1.05359520618688</v>
       </c>
       <c r="L4">
-        <v>1.042457292355482</v>
+        <v>1.036724891136803</v>
       </c>
       <c r="M4">
-        <v>1.065056186371493</v>
+        <v>1.060585331853139</v>
       </c>
       <c r="N4">
-        <v>1.047779218746512</v>
+        <v>1.044595751828353</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042033163598755</v>
+        <v>1.025431506398828</v>
       </c>
       <c r="D5">
-        <v>1.051810141202698</v>
+        <v>1.044897020625883</v>
       </c>
       <c r="E5">
-        <v>1.040190020843837</v>
+        <v>1.02783762175033</v>
       </c>
       <c r="F5">
-        <v>1.062883153162266</v>
+        <v>1.052134781945116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046529408887993</v>
+        <v>1.059660465834423</v>
       </c>
       <c r="J5">
-        <v>1.046439693174671</v>
+        <v>1.043768080133222</v>
       </c>
       <c r="K5">
-        <v>1.054203851754462</v>
+        <v>1.054270379900328</v>
       </c>
       <c r="L5">
-        <v>1.042611888768136</v>
+        <v>1.037394813066227</v>
       </c>
       <c r="M5">
-        <v>1.065250646906174</v>
+        <v>1.061432346978554</v>
       </c>
       <c r="N5">
-        <v>1.04792575756729</v>
+        <v>1.045250350528883</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042073987535461</v>
+        <v>1.025618628905602</v>
       </c>
       <c r="D6">
-        <v>1.051843773561738</v>
+        <v>1.045047038548915</v>
       </c>
       <c r="E6">
-        <v>1.040224731264401</v>
+        <v>1.027987658431557</v>
       </c>
       <c r="F6">
-        <v>1.062924364807607</v>
+        <v>1.052313530509628</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046541799930544</v>
+        <v>1.059729344769129</v>
       </c>
       <c r="J6">
-        <v>1.04646426067545</v>
+        <v>1.043877375554504</v>
       </c>
       <c r="K6">
-        <v>1.05422884296218</v>
+        <v>1.05438325983467</v>
       </c>
       <c r="L6">
-        <v>1.042637847991813</v>
+        <v>1.037506861598997</v>
       </c>
       <c r="M6">
-        <v>1.065283299577237</v>
+        <v>1.061574009609507</v>
       </c>
       <c r="N6">
-        <v>1.047950359956738</v>
+        <v>1.0453598011622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041793314965409</v>
+        <v>1.024327820029548</v>
       </c>
       <c r="D7">
-        <v>1.051612543817733</v>
+        <v>1.044012353132086</v>
       </c>
       <c r="E7">
-        <v>1.039986120276734</v>
+        <v>1.026953114038474</v>
       </c>
       <c r="F7">
-        <v>1.062641048595443</v>
+        <v>1.051080829208511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046456512332498</v>
+        <v>1.059253395654584</v>
       </c>
       <c r="J7">
-        <v>1.046295317584203</v>
+        <v>1.043123174969985</v>
       </c>
       <c r="K7">
-        <v>1.054056977004398</v>
+        <v>1.053604260509968</v>
       </c>
       <c r="L7">
-        <v>1.042459357958493</v>
+        <v>1.036733871901178</v>
       </c>
       <c r="M7">
-        <v>1.065058784634955</v>
+        <v>1.060596687067038</v>
       </c>
       <c r="N7">
-        <v>1.047781176946923</v>
+        <v>1.044604529526343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040621168015003</v>
+        <v>1.018826984589772</v>
       </c>
       <c r="D8">
-        <v>1.050646866717535</v>
+        <v>1.039607520619412</v>
       </c>
       <c r="E8">
-        <v>1.038990380965924</v>
+        <v>1.022555673198917</v>
       </c>
       <c r="F8">
-        <v>1.061458409908052</v>
+        <v>1.045836465721179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046097925126047</v>
+        <v>1.057205001466402</v>
       </c>
       <c r="J8">
-        <v>1.045588863756852</v>
+        <v>1.039902803362554</v>
       </c>
       <c r="K8">
-        <v>1.053338072958943</v>
+        <v>1.050276434526766</v>
       </c>
       <c r="L8">
-        <v>1.041713568317314</v>
+        <v>1.033438541284613</v>
       </c>
       <c r="M8">
-        <v>1.06412063223521</v>
+        <v>1.056429384913413</v>
       </c>
       <c r="N8">
-        <v>1.047073719874106</v>
+        <v>1.041379584621848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038559620238294</v>
+        <v>1.008707132346023</v>
       </c>
       <c r="D9">
-        <v>1.048948433674453</v>
+        <v>1.031524169989241</v>
       </c>
       <c r="E9">
-        <v>1.037241954644436</v>
+        <v>1.014511772493472</v>
       </c>
       <c r="F9">
-        <v>1.059380500622043</v>
+        <v>1.03622464156506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045458183869917</v>
+        <v>1.05336185059888</v>
       </c>
       <c r="J9">
-        <v>1.044342946097775</v>
+        <v>1.03395612211334</v>
       </c>
       <c r="K9">
-        <v>1.052069342602357</v>
+        <v>1.044125686925354</v>
       </c>
       <c r="L9">
-        <v>1.040400486321973</v>
+        <v>1.027373713545808</v>
       </c>
       <c r="M9">
-        <v>1.06246864822727</v>
+        <v>1.048756120566029</v>
       </c>
       <c r="N9">
-        <v>1.045826032869044</v>
+        <v>1.035424458403166</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037187970294092</v>
+        <v>1.001644209594451</v>
       </c>
       <c r="D10">
-        <v>1.047818396933361</v>
+        <v>1.025899106751394</v>
       </c>
       <c r="E10">
-        <v>1.036080594237994</v>
+        <v>1.008931581960787</v>
       </c>
       <c r="F10">
-        <v>1.057999392598542</v>
+        <v>1.029543120043585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045026444389208</v>
+        <v>1.050631339379753</v>
       </c>
       <c r="J10">
-        <v>1.043511689505595</v>
+        <v>1.029792744162655</v>
       </c>
       <c r="K10">
-        <v>1.051222294470174</v>
+        <v>1.039815976939851</v>
       </c>
       <c r="L10">
-        <v>1.039525904883385</v>
+        <v>1.023141424985933</v>
       </c>
       <c r="M10">
-        <v>1.061368188424291</v>
+        <v>1.043398693837277</v>
       </c>
       <c r="N10">
-        <v>1.044993595797157</v>
+        <v>1.031255167978244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036594690591677</v>
+        <v>0.9985037574409559</v>
       </c>
       <c r="D11">
-        <v>1.047329631861581</v>
+        <v>1.023402578687681</v>
       </c>
       <c r="E11">
-        <v>1.0355787416243</v>
+        <v>1.006459086059543</v>
       </c>
       <c r="F11">
-        <v>1.057402365587989</v>
+        <v>1.026579176801911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044838261169863</v>
+        <v>1.049406326425446</v>
       </c>
       <c r="J11">
-        <v>1.043151606863876</v>
+        <v>1.027938914599658</v>
       </c>
       <c r="K11">
-        <v>1.050855236555146</v>
+        <v>1.037896251702141</v>
       </c>
       <c r="L11">
-        <v>1.039147407557406</v>
+        <v>1.021260212870611</v>
       </c>
       <c r="M11">
-        <v>1.060891899134582</v>
+        <v>1.041016672366413</v>
       </c>
       <c r="N11">
-        <v>1.044633001796785</v>
+        <v>1.029398705764631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036374419560971</v>
+        <v>0.9973242605935597</v>
       </c>
       <c r="D12">
-        <v>1.047148166660386</v>
+        <v>1.022465678725829</v>
       </c>
       <c r="E12">
-        <v>1.035392486649263</v>
+        <v>1.005531822282096</v>
       </c>
       <c r="F12">
-        <v>1.057180755304115</v>
+        <v>1.025467063856065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044768176357763</v>
+        <v>1.04894463982296</v>
       </c>
       <c r="J12">
-        <v>1.043017835720082</v>
+        <v>1.027242295811798</v>
       </c>
       <c r="K12">
-        <v>1.050718853910768</v>
+        <v>1.03717476751145</v>
       </c>
       <c r="L12">
-        <v>1.039006848355627</v>
+        <v>1.020553803191238</v>
       </c>
       <c r="M12">
-        <v>1.060715018070277</v>
+        <v>1.040122095692763</v>
       </c>
       <c r="N12">
-        <v>1.044499040682622</v>
+        <v>1.028701097698189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036421663923693</v>
+        <v>0.9975778655356877</v>
       </c>
       <c r="D13">
-        <v>1.047187087740373</v>
+        <v>1.022667087721372</v>
       </c>
       <c r="E13">
-        <v>1.035432431914896</v>
+        <v>1.005731131867996</v>
       </c>
       <c r="F13">
-        <v>1.057228284552197</v>
+        <v>1.025706130406278</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044783218156865</v>
+        <v>1.049043978830512</v>
       </c>
       <c r="J13">
-        <v>1.043046530991224</v>
+        <v>1.027392091922419</v>
       </c>
       <c r="K13">
-        <v>1.050748110287456</v>
+        <v>1.037329915066973</v>
       </c>
       <c r="L13">
-        <v>1.039036997334577</v>
+        <v>1.020705682086189</v>
       </c>
       <c r="M13">
-        <v>1.060752958099073</v>
+        <v>1.040314435717685</v>
       </c>
       <c r="N13">
-        <v>1.044527776704341</v>
+        <v>1.028851106536469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036576480883266</v>
+        <v>0.9984065288250253</v>
       </c>
       <c r="D14">
-        <v>1.04731463017086</v>
+        <v>1.023325332268028</v>
       </c>
       <c r="E14">
-        <v>1.035563342550144</v>
+        <v>1.006382621585307</v>
       </c>
       <c r="F14">
-        <v>1.057384044100061</v>
+        <v>1.026487480329069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044832471711185</v>
+        <v>1.049368300674009</v>
       </c>
       <c r="J14">
-        <v>1.043140549709705</v>
+        <v>1.027881497679545</v>
       </c>
       <c r="K14">
-        <v>1.050843963952787</v>
+        <v>1.037836787380884</v>
       </c>
       <c r="L14">
-        <v>1.039135788239357</v>
+        <v>1.021201978808213</v>
       </c>
       <c r="M14">
-        <v>1.060877277389406</v>
+        <v>1.040942928690525</v>
       </c>
       <c r="N14">
-        <v>1.044621928940187</v>
+        <v>1.029341207305906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036671881939243</v>
+        <v>0.9989153537695218</v>
       </c>
       <c r="D15">
-        <v>1.047393224436308</v>
+        <v>1.023729615679471</v>
       </c>
       <c r="E15">
-        <v>1.035644021556146</v>
+        <v>1.006782837713393</v>
       </c>
       <c r="F15">
-        <v>1.057480032905155</v>
+        <v>1.026967398759352</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044862793933251</v>
+        <v>1.049567235519867</v>
       </c>
       <c r="J15">
-        <v>1.043198475071736</v>
+        <v>1.028181962532668</v>
       </c>
       <c r="K15">
-        <v>1.050903017162161</v>
+        <v>1.038147962180818</v>
       </c>
       <c r="L15">
-        <v>1.039196660793251</v>
+        <v>1.021506740143958</v>
       </c>
       <c r="M15">
-        <v>1.060953879151625</v>
+        <v>1.041328853342077</v>
       </c>
       <c r="N15">
-        <v>1.044679936562876</v>
+        <v>1.029642098853584</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037227358194416</v>
+        <v>1.001850845568435</v>
       </c>
       <c r="D16">
-        <v>1.047850846344321</v>
+        <v>1.026063474532946</v>
       </c>
       <c r="E16">
-        <v>1.036113922253952</v>
+        <v>1.009094453287779</v>
       </c>
       <c r="F16">
-        <v>1.058039036560751</v>
+        <v>1.029738290563748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045038907482351</v>
+        <v>1.050711719223442</v>
       </c>
       <c r="J16">
-        <v>1.043535584082328</v>
+        <v>1.029914671353814</v>
       </c>
       <c r="K16">
-        <v>1.051246649083614</v>
+        <v>1.039942223346249</v>
       </c>
       <c r="L16">
-        <v>1.039551028865217</v>
+        <v>1.023265222150479</v>
       </c>
       <c r="M16">
-        <v>1.061399802866329</v>
+        <v>1.043555432921439</v>
       </c>
       <c r="N16">
-        <v>1.045017524306929</v>
+        <v>1.031377268320001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03757596968494</v>
+        <v>1.003669760103219</v>
       </c>
       <c r="D17">
-        <v>1.048138048353762</v>
+        <v>1.027510853597453</v>
       </c>
       <c r="E17">
-        <v>1.036408953838165</v>
+        <v>1.010529124247803</v>
       </c>
       <c r="F17">
-        <v>1.058389954152218</v>
+        <v>1.031457074874748</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045149048115449</v>
+        <v>1.051418024793209</v>
       </c>
       <c r="J17">
-        <v>1.043747006117105</v>
+        <v>1.030987641641017</v>
       </c>
       <c r="K17">
-        <v>1.051462126025878</v>
+        <v>1.041053119929519</v>
       </c>
       <c r="L17">
-        <v>1.039773369563007</v>
+        <v>1.024355024483686</v>
       </c>
       <c r="M17">
-        <v>1.061679578115081</v>
+        <v>1.044935147314657</v>
       </c>
       <c r="N17">
-        <v>1.045229246585246</v>
+        <v>1.032451762348082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037779371865454</v>
+        <v>1.004722820981476</v>
       </c>
       <c r="D18">
-        <v>1.048305621226405</v>
+        <v>1.028349246266944</v>
       </c>
       <c r="E18">
-        <v>1.036581139475827</v>
+        <v>1.011360547225816</v>
       </c>
       <c r="F18">
-        <v>1.0585947350049</v>
+        <v>1.032452819372577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045213171867704</v>
+        <v>1.051825900211989</v>
       </c>
       <c r="J18">
-        <v>1.0438703111385</v>
+        <v>1.031608585552569</v>
       </c>
       <c r="K18">
-        <v>1.051587782941015</v>
+        <v>1.041695941793808</v>
       </c>
       <c r="L18">
-        <v>1.039903076561463</v>
+        <v>1.024986022426003</v>
       </c>
       <c r="M18">
-        <v>1.061842787135924</v>
+        <v>1.045733939155753</v>
       </c>
       <c r="N18">
-        <v>1.045352726713915</v>
+        <v>1.033073588071212</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037848737400071</v>
+        <v>1.005080569772739</v>
       </c>
       <c r="D19">
-        <v>1.048362768154569</v>
+        <v>1.028634138952176</v>
       </c>
       <c r="E19">
-        <v>1.036639867023079</v>
+        <v>1.011643137990053</v>
       </c>
       <c r="F19">
-        <v>1.05866457631272</v>
+        <v>1.03279120596673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045235016134326</v>
+        <v>1.051964286962414</v>
       </c>
       <c r="J19">
-        <v>1.043912352578296</v>
+        <v>1.031819490348344</v>
       </c>
       <c r="K19">
-        <v>1.051630624063536</v>
+        <v>1.041914265296044</v>
       </c>
       <c r="L19">
-        <v>1.039947306556027</v>
+        <v>1.025200395122333</v>
       </c>
       <c r="M19">
-        <v>1.061898440689392</v>
+        <v>1.04600530644773</v>
       </c>
       <c r="N19">
-        <v>1.045394827857377</v>
+        <v>1.033284792375988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037538560446246</v>
+        <v>1.003475427535682</v>
       </c>
       <c r="D20">
-        <v>1.048107228823808</v>
+        <v>1.027356170560816</v>
       </c>
       <c r="E20">
-        <v>1.036377289520348</v>
+        <v>1.010375758749463</v>
       </c>
       <c r="F20">
-        <v>1.058352294016559</v>
+        <v>1.031273372012397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045137243414636</v>
+        <v>1.051342670794453</v>
       </c>
       <c r="J20">
-        <v>1.043724323960993</v>
+        <v>1.030873031547883</v>
       </c>
       <c r="K20">
-        <v>1.051439010188114</v>
+        <v>1.04093446598122</v>
       </c>
       <c r="L20">
-        <v>1.039749512491977</v>
+        <v>1.024238583963854</v>
       </c>
       <c r="M20">
-        <v>1.061649558711947</v>
+        <v>1.044787737844342</v>
       </c>
       <c r="N20">
-        <v>1.045206532217871</v>
+        <v>1.03233698949547</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036530888391604</v>
+        <v>0.9981628722441477</v>
       </c>
       <c r="D21">
-        <v>1.047277069775386</v>
+        <v>1.023131763718601</v>
       </c>
       <c r="E21">
-        <v>1.035524788327671</v>
+        <v>1.006191022424801</v>
       </c>
       <c r="F21">
-        <v>1.057338172582939</v>
+        <v>1.026257705136498</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044817972873557</v>
+        <v>1.049272981969843</v>
       </c>
       <c r="J21">
-        <v>1.043112864095473</v>
+        <v>1.027737604330092</v>
       </c>
       <c r="K21">
-        <v>1.050815738559776</v>
+        <v>1.037687761367273</v>
       </c>
       <c r="L21">
-        <v>1.039106695899587</v>
+        <v>1.021056045651191</v>
       </c>
       <c r="M21">
-        <v>1.060840667507804</v>
+        <v>1.040758127040446</v>
       </c>
       <c r="N21">
-        <v>1.044594204009206</v>
+        <v>1.029197109611391</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03589790107844</v>
+        <v>0.9947471304621199</v>
       </c>
       <c r="D22">
-        <v>1.046755602061771</v>
+        <v>1.020420057192237</v>
       </c>
       <c r="E22">
-        <v>1.034989687042863</v>
+        <v>1.003508373622571</v>
       </c>
       <c r="F22">
-        <v>1.056701435165168</v>
+        <v>1.023039225665775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044616163727308</v>
+        <v>1.047933005292925</v>
       </c>
       <c r="J22">
-        <v>1.042728297409636</v>
+        <v>1.025719621163124</v>
       </c>
       <c r="K22">
-        <v>1.050423626354568</v>
+        <v>1.035597559757235</v>
       </c>
       <c r="L22">
-        <v>1.03870271476114</v>
+        <v>1.019010647870425</v>
       </c>
       <c r="M22">
-        <v>1.060332282808474</v>
+        <v>1.038167682832098</v>
       </c>
       <c r="N22">
-        <v>1.044209091194565</v>
+        <v>1.02717626067686</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036233404605212</v>
+        <v>0.9965652671613288</v>
       </c>
       <c r="D23">
-        <v>1.047031995362303</v>
+        <v>1.021863013052654</v>
       </c>
       <c r="E23">
-        <v>1.035273268519846</v>
+        <v>1.004935528944176</v>
       </c>
       <c r="F23">
-        <v>1.05703889767339</v>
+        <v>1.024751744973108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044723247870887</v>
+        <v>1.048647106380462</v>
       </c>
       <c r="J23">
-        <v>1.042932174274199</v>
+        <v>1.02679393467567</v>
       </c>
       <c r="K23">
-        <v>1.050631514496352</v>
+        <v>1.03671037413653</v>
       </c>
       <c r="L23">
-        <v>1.038916855050639</v>
+        <v>1.020099281299611</v>
       </c>
       <c r="M23">
-        <v>1.060601767995467</v>
+        <v>1.039546471037476</v>
       </c>
       <c r="N23">
-        <v>1.044413257587661</v>
+        <v>1.02825209983782</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037555463876421</v>
+        <v>1.003563262366106</v>
       </c>
       <c r="D24">
-        <v>1.048121154679817</v>
+        <v>1.027426083179728</v>
       </c>
       <c r="E24">
-        <v>1.036391596957796</v>
+        <v>1.01044507466274</v>
       </c>
       <c r="F24">
-        <v>1.05836931071263</v>
+        <v>1.031356400383274</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045142577819848</v>
+        <v>1.05137673267708</v>
       </c>
       <c r="J24">
-        <v>1.043734573093982</v>
+        <v>1.030924834037234</v>
       </c>
       <c r="K24">
-        <v>1.05144945532417</v>
+        <v>1.040988096467529</v>
       </c>
       <c r="L24">
-        <v>1.039760292415553</v>
+        <v>1.024291212815247</v>
       </c>
       <c r="M24">
-        <v>1.061663123123773</v>
+        <v>1.044854364263009</v>
       </c>
       <c r="N24">
-        <v>1.045216795905804</v>
+        <v>1.032388865550299</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03909210677885</v>
+        <v>1.011376845525959</v>
       </c>
       <c r="D25">
-        <v>1.049387129099385</v>
+        <v>1.033653995979669</v>
       </c>
       <c r="E25">
-        <v>1.037693221209451</v>
+        <v>1.016628188693893</v>
       </c>
       <c r="F25">
-        <v>1.059916962959031</v>
+        <v>1.038755877388557</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045624499962655</v>
+        <v>1.054384207626262</v>
       </c>
       <c r="J25">
-        <v>1.044665164094534</v>
+        <v>1.035527307138912</v>
       </c>
       <c r="K25">
-        <v>1.052397561323575</v>
+        <v>1.045751411437873</v>
       </c>
       <c r="L25">
-        <v>1.040739812499599</v>
+        <v>1.028973743117058</v>
       </c>
       <c r="M25">
-        <v>1.06289557966364</v>
+        <v>1.050780938510834</v>
       </c>
       <c r="N25">
-        <v>1.046148708452317</v>
+        <v>1.036997874691692</v>
       </c>
     </row>
   </sheetData>
